--- a/Doc/Analyse/Planif.xlsx
+++ b/Doc/Analyse/Planif.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\s2.rpn.ch\home\CPLN\Eleves\ET\MarshallPh\Annee_4\TPI_FICTIF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TPI_fictif\Doc\Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -569,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -639,16 +639,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -663,29 +662,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1540,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V51" sqref="V51"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CL50" sqref="CL50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1555,236 +1556,236 @@
   <sheetData>
     <row r="1" spans="2:172" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:172" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="65" t="s">
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="65" t="s">
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="65" t="s">
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="65" t="s">
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="65" t="s">
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="65" t="s">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="68"/>
-      <c r="BD2" s="65" t="s">
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="66"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="66"/>
-      <c r="BK2" s="66"/>
-      <c r="BL2" s="65" t="s">
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="BM2" s="66"/>
-      <c r="BN2" s="66"/>
-      <c r="BO2" s="67"/>
-      <c r="BP2" s="65" t="s">
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="BQ2" s="66"/>
-      <c r="BR2" s="66"/>
-      <c r="BS2" s="66"/>
-      <c r="BT2" s="66"/>
-      <c r="BU2" s="66"/>
-      <c r="BV2" s="66"/>
-      <c r="BW2" s="66"/>
-      <c r="BX2" s="68"/>
-      <c r="BY2" s="65" t="s">
+      <c r="BQ2" s="69"/>
+      <c r="BR2" s="69"/>
+      <c r="BS2" s="69"/>
+      <c r="BT2" s="69"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="69"/>
+      <c r="BX2" s="71"/>
+      <c r="BY2" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="BZ2" s="66"/>
-      <c r="CA2" s="66"/>
-      <c r="CB2" s="66"/>
-      <c r="CC2" s="66"/>
-      <c r="CD2" s="66"/>
-      <c r="CE2" s="66"/>
-      <c r="CF2" s="66"/>
-      <c r="CG2" s="65" t="s">
+      <c r="BZ2" s="69"/>
+      <c r="CA2" s="69"/>
+      <c r="CB2" s="69"/>
+      <c r="CC2" s="69"/>
+      <c r="CD2" s="69"/>
+      <c r="CE2" s="69"/>
+      <c r="CF2" s="69"/>
+      <c r="CG2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="CH2" s="66"/>
-      <c r="CI2" s="66"/>
-      <c r="CJ2" s="67"/>
-      <c r="CK2" s="65" t="s">
+      <c r="CH2" s="69"/>
+      <c r="CI2" s="69"/>
+      <c r="CJ2" s="70"/>
+      <c r="CK2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="CL2" s="66"/>
-      <c r="CM2" s="66"/>
-      <c r="CN2" s="66"/>
-      <c r="CO2" s="66"/>
-      <c r="CP2" s="66"/>
-      <c r="CQ2" s="66"/>
-      <c r="CR2" s="66"/>
-      <c r="CS2" s="68"/>
-      <c r="CT2" s="65" t="s">
+      <c r="CL2" s="69"/>
+      <c r="CM2" s="69"/>
+      <c r="CN2" s="69"/>
+      <c r="CO2" s="69"/>
+      <c r="CP2" s="69"/>
+      <c r="CQ2" s="69"/>
+      <c r="CR2" s="69"/>
+      <c r="CS2" s="71"/>
+      <c r="CT2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="CU2" s="66"/>
-      <c r="CV2" s="66"/>
-      <c r="CW2" s="66"/>
-      <c r="CX2" s="66"/>
-      <c r="CY2" s="66"/>
-      <c r="CZ2" s="66"/>
-      <c r="DA2" s="66"/>
-      <c r="DB2" s="65" t="s">
+      <c r="CU2" s="69"/>
+      <c r="CV2" s="69"/>
+      <c r="CW2" s="69"/>
+      <c r="CX2" s="69"/>
+      <c r="CY2" s="69"/>
+      <c r="CZ2" s="69"/>
+      <c r="DA2" s="69"/>
+      <c r="DB2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="DC2" s="66"/>
-      <c r="DD2" s="66"/>
-      <c r="DE2" s="67"/>
-      <c r="DF2" s="65" t="s">
+      <c r="DC2" s="69"/>
+      <c r="DD2" s="69"/>
+      <c r="DE2" s="70"/>
+      <c r="DF2" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="DG2" s="66"/>
-      <c r="DH2" s="66"/>
-      <c r="DI2" s="66"/>
-      <c r="DJ2" s="66"/>
-      <c r="DK2" s="66"/>
-      <c r="DL2" s="66"/>
-      <c r="DM2" s="66"/>
-      <c r="DN2" s="68"/>
-      <c r="DO2" s="65" t="s">
+      <c r="DG2" s="69"/>
+      <c r="DH2" s="69"/>
+      <c r="DI2" s="69"/>
+      <c r="DJ2" s="69"/>
+      <c r="DK2" s="69"/>
+      <c r="DL2" s="69"/>
+      <c r="DM2" s="69"/>
+      <c r="DN2" s="71"/>
+      <c r="DO2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="DP2" s="66"/>
-      <c r="DQ2" s="66"/>
-      <c r="DR2" s="66"/>
-      <c r="DS2" s="66"/>
-      <c r="DT2" s="66"/>
-      <c r="DU2" s="66"/>
-      <c r="DV2" s="66"/>
-      <c r="DW2" s="65" t="s">
+      <c r="DP2" s="69"/>
+      <c r="DQ2" s="69"/>
+      <c r="DR2" s="69"/>
+      <c r="DS2" s="69"/>
+      <c r="DT2" s="69"/>
+      <c r="DU2" s="69"/>
+      <c r="DV2" s="69"/>
+      <c r="DW2" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="DX2" s="66"/>
-      <c r="DY2" s="66"/>
-      <c r="DZ2" s="67"/>
-      <c r="EA2" s="65" t="s">
+      <c r="DX2" s="69"/>
+      <c r="DY2" s="69"/>
+      <c r="DZ2" s="70"/>
+      <c r="EA2" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="EB2" s="66"/>
-      <c r="EC2" s="66"/>
-      <c r="ED2" s="66"/>
-      <c r="EE2" s="66"/>
-      <c r="EF2" s="66"/>
-      <c r="EG2" s="66"/>
-      <c r="EH2" s="66"/>
-      <c r="EI2" s="68"/>
-      <c r="EJ2" s="65" t="s">
+      <c r="EB2" s="69"/>
+      <c r="EC2" s="69"/>
+      <c r="ED2" s="69"/>
+      <c r="EE2" s="69"/>
+      <c r="EF2" s="69"/>
+      <c r="EG2" s="69"/>
+      <c r="EH2" s="69"/>
+      <c r="EI2" s="71"/>
+      <c r="EJ2" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="EK2" s="66"/>
-      <c r="EL2" s="66"/>
-      <c r="EM2" s="66"/>
-      <c r="EN2" s="66"/>
-      <c r="EO2" s="66"/>
-      <c r="EP2" s="66"/>
-      <c r="EQ2" s="66"/>
-      <c r="ER2" s="65" t="s">
+      <c r="EK2" s="69"/>
+      <c r="EL2" s="69"/>
+      <c r="EM2" s="69"/>
+      <c r="EN2" s="69"/>
+      <c r="EO2" s="69"/>
+      <c r="EP2" s="69"/>
+      <c r="EQ2" s="69"/>
+      <c r="ER2" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="ES2" s="66"/>
-      <c r="ET2" s="66"/>
-      <c r="EU2" s="67"/>
-      <c r="EV2" s="65" t="s">
+      <c r="ES2" s="69"/>
+      <c r="ET2" s="69"/>
+      <c r="EU2" s="70"/>
+      <c r="EV2" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="EW2" s="66"/>
-      <c r="EX2" s="66"/>
-      <c r="EY2" s="66"/>
-      <c r="EZ2" s="66"/>
-      <c r="FA2" s="66"/>
-      <c r="FB2" s="66"/>
-      <c r="FC2" s="66"/>
-      <c r="FD2" s="68"/>
-      <c r="FE2" s="65" t="s">
+      <c r="EW2" s="69"/>
+      <c r="EX2" s="69"/>
+      <c r="EY2" s="69"/>
+      <c r="EZ2" s="69"/>
+      <c r="FA2" s="69"/>
+      <c r="FB2" s="69"/>
+      <c r="FC2" s="69"/>
+      <c r="FD2" s="71"/>
+      <c r="FE2" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="FF2" s="66"/>
-      <c r="FG2" s="66"/>
-      <c r="FH2" s="66"/>
-      <c r="FI2" s="66"/>
-      <c r="FJ2" s="66"/>
-      <c r="FK2" s="66"/>
-      <c r="FL2" s="66"/>
-      <c r="FM2" s="65" t="s">
+      <c r="FF2" s="69"/>
+      <c r="FG2" s="69"/>
+      <c r="FH2" s="69"/>
+      <c r="FI2" s="69"/>
+      <c r="FJ2" s="69"/>
+      <c r="FK2" s="69"/>
+      <c r="FL2" s="69"/>
+      <c r="FM2" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="FN2" s="66"/>
-      <c r="FO2" s="66"/>
-      <c r="FP2" s="67"/>
+      <c r="FN2" s="69"/>
+      <c r="FO2" s="69"/>
+      <c r="FP2" s="70"/>
     </row>
     <row r="3" spans="2:172" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="64"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
@@ -2294,21 +2295,21 @@
       <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="76"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="62"/>
       <c r="N4" s="43"/>
       <c r="O4" s="43"/>
       <c r="P4" s="47"/>
@@ -2471,19 +2472,19 @@
     </row>
     <row r="5" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B5" s="15"/>
-      <c r="C5" s="74"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="77"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="48"/>
       <c r="O5" s="48"/>
       <c r="Q5" s="3"/>
@@ -2647,21 +2648,21 @@
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="66" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="78"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="64"/>
       <c r="N6" s="29"/>
       <c r="O6" s="32"/>
       <c r="P6" s="39"/>
@@ -2821,19 +2822,19 @@
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
       <c r="N7" s="9"/>
       <c r="O7" s="3"/>
       <c r="P7" s="48"/>
@@ -2992,21 +2993,21 @@
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="66" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="78"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="64"/>
       <c r="N8" s="29"/>
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
@@ -3165,19 +3166,19 @@
     </row>
     <row r="9" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="63"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
       <c r="N9" s="9"/>
       <c r="O9" s="3"/>
       <c r="S9" s="48"/>
@@ -3337,21 +3338,21 @@
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="66" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="9"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -3504,19 +3505,19 @@
     </row>
     <row r="11" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
-      <c r="C11" s="63"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
       <c r="N11" s="9"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -3671,21 +3672,21 @@
       <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="66" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
       <c r="N12" s="9"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -3837,19 +3838,19 @@
     </row>
     <row r="13" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="63"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
       <c r="N13" s="9"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -4006,21 +4007,21 @@
       <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
       <c r="N14" s="9"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -4172,19 +4173,19 @@
     </row>
     <row r="15" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="C15" s="63"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
       <c r="N15" s="9"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -4345,21 +4346,21 @@
       <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
       <c r="N16" s="9"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -4521,19 +4522,19 @@
       <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="9"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -4686,21 +4687,21 @@
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
       <c r="N18" s="9"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -4856,19 +4857,19 @@
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
       <c r="N19" s="9"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -5024,21 +5025,21 @@
       <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
       <c r="N20" s="9"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -5185,19 +5186,19 @@
     </row>
     <row r="21" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="C21" s="63"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
       <c r="N21" s="9"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -5346,21 +5347,21 @@
       <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
       <c r="N22" s="9"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -5510,19 +5511,19 @@
     </row>
     <row r="23" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
-      <c r="C23" s="63"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
       <c r="N23" s="9"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -5671,21 +5672,21 @@
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
       <c r="N24" s="9"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -5829,19 +5830,19 @@
     </row>
     <row r="25" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
-      <c r="C25" s="63"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
       <c r="N25" s="9"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -5994,21 +5995,21 @@
       <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="9"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -6156,19 +6157,19 @@
     </row>
     <row r="27" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
-      <c r="C27" s="63"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
       <c r="N27" s="9"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -6321,21 +6322,21 @@
       <c r="B28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
       <c r="N28" s="9"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -6476,19 +6477,19 @@
     </row>
     <row r="29" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
-      <c r="C29" s="63"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
       <c r="N29" s="9"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -6642,21 +6643,21 @@
       <c r="B30" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="9"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -6793,19 +6794,19 @@
     <row r="31" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="63"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
       <c r="N31" s="9"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -6946,21 +6947,21 @@
       <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
       <c r="N32" s="9"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -7105,19 +7106,19 @@
     <row r="33" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="63"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
       <c r="N33" s="9"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -7261,21 +7262,21 @@
       <c r="B34" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
       <c r="N34" s="9"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -7416,19 +7417,19 @@
     <row r="35" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="63"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
       <c r="N35" s="9"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -7571,21 +7572,21 @@
       <c r="B36" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
       <c r="N36" s="9"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -7729,19 +7730,19 @@
     <row r="37" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A37" s="35"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="63"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
       <c r="N37" s="9"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -7889,21 +7890,21 @@
       <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="C38" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
       <c r="N38" s="9"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -8050,19 +8051,19 @@
     </row>
     <row r="39" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
-      <c r="C39" s="63"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
       <c r="N39" s="9"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -8210,21 +8211,21 @@
       <c r="B40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
       <c r="N40" s="9"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -8373,19 +8374,19 @@
     </row>
     <row r="41" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
-      <c r="C41" s="63"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
       <c r="N41" s="9"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -8541,21 +8542,21 @@
       <c r="B42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
       <c r="N42" s="9"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -8700,19 +8701,19 @@
     </row>
     <row r="43" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
-      <c r="C43" s="63"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
       <c r="N43" s="9"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -8776,15 +8777,15 @@
       <c r="BV43" s="25"/>
       <c r="BW43" s="25"/>
       <c r="BX43" s="30"/>
-      <c r="BY43" s="25"/>
-      <c r="BZ43" s="25"/>
-      <c r="CA43" s="25"/>
-      <c r="CB43" s="25"/>
-      <c r="CC43" s="25"/>
-      <c r="CD43" s="25"/>
-      <c r="CE43" s="25"/>
-      <c r="CF43" s="30"/>
-      <c r="CG43" s="29"/>
+      <c r="BY43" s="50"/>
+      <c r="BZ43" s="50"/>
+      <c r="CA43" s="50"/>
+      <c r="CB43" s="50"/>
+      <c r="CC43" s="50"/>
+      <c r="CD43" s="50"/>
+      <c r="CE43" s="50"/>
+      <c r="CF43" s="52"/>
+      <c r="CG43" s="80"/>
       <c r="CH43" s="25"/>
       <c r="CI43" s="25"/>
       <c r="CJ43" s="37"/>
@@ -8861,21 +8862,21 @@
       <c r="B44" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
       <c r="N44" s="9"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -9026,19 +9027,19 @@
     </row>
     <row r="45" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B45" s="34"/>
-      <c r="C45" s="63"/>
+      <c r="C45" s="67"/>
       <c r="D45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
       <c r="N45" s="9"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
@@ -9196,21 +9197,21 @@
       <c r="B46" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
       <c r="N46" s="9"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -9365,19 +9366,19 @@
     </row>
     <row r="47" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B47" s="34"/>
-      <c r="C47" s="63"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
       <c r="N47" s="9"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -9535,21 +9536,21 @@
       <c r="B48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
       <c r="N48" s="9"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
@@ -9698,19 +9699,19 @@
     </row>
     <row r="49" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B49" s="34"/>
-      <c r="C49" s="63"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="75"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
       <c r="N49" s="9"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -9868,21 +9869,21 @@
       <c r="B50" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
       <c r="N50" s="9"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -10041,19 +10042,19 @@
     </row>
     <row r="51" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B51" s="59"/>
-      <c r="C51" s="63"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
       <c r="N51" s="9"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -10211,21 +10212,21 @@
       <c r="B52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
       <c r="N52" s="9"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -10375,19 +10376,19 @@
     </row>
     <row r="53" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
-      <c r="C53" s="63"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
       <c r="N53" s="9"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
@@ -10545,21 +10546,21 @@
       <c r="B54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="77"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="63"/>
       <c r="U54" s="18"/>
       <c r="Y54" s="35"/>
       <c r="AH54" s="18"/>
@@ -10591,19 +10592,19 @@
     </row>
     <row r="55" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
-      <c r="C55" s="63"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="77"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="63"/>
       <c r="U55" s="18"/>
       <c r="Y55" s="35"/>
       <c r="AH55" s="18"/>
@@ -10632,21 +10633,21 @@
       <c r="B56" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
       <c r="N56" s="9"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
@@ -10796,19 +10797,19 @@
     </row>
     <row r="57" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
-      <c r="C57" s="63"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
       <c r="N57" s="9"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
@@ -10966,21 +10967,21 @@
       <c r="B58" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61"/>
       <c r="N58" s="9"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
@@ -11132,19 +11133,19 @@
     </row>
     <row r="59" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
-      <c r="C59" s="63"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="77"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="63"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
@@ -11309,21 +11310,21 @@
       <c r="B60" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="62" t="s">
+      <c r="C60" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="77"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="63"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
@@ -11486,19 +11487,19 @@
     </row>
     <row r="61" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
-      <c r="C61" s="63"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
       <c r="N61" s="9"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -11656,21 +11657,21 @@
       <c r="B62" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="62" t="s">
+      <c r="C62" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="75"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="75"/>
-      <c r="M62" s="75"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="61"/>
       <c r="N62" s="9"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -11818,19 +11819,19 @@
     </row>
     <row r="63" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
-      <c r="C63" s="63"/>
+      <c r="C63" s="67"/>
       <c r="D63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
       <c r="N63" s="9"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
@@ -11989,21 +11990,21 @@
       <c r="B64" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="62" t="s">
+      <c r="C64" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
       <c r="N64" s="9"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
@@ -12152,19 +12153,19 @@
     </row>
     <row r="65" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
-      <c r="C65" s="63"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="75"/>
-      <c r="J65" s="75"/>
-      <c r="K65" s="75"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
       <c r="N65" s="9"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
@@ -12319,21 +12320,21 @@
       <c r="B66" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="C66" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="75"/>
-      <c r="I66" s="75"/>
-      <c r="J66" s="75"/>
-      <c r="K66" s="75"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="75"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
       <c r="N66" s="9"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
@@ -12472,19 +12473,19 @@
     </row>
     <row r="67" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
-      <c r="C67" s="63"/>
+      <c r="C67" s="67"/>
       <c r="D67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="75"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
       <c r="N67" s="9"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
@@ -12643,21 +12644,21 @@
       <c r="B68" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="62" t="s">
+      <c r="C68" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="75"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
       <c r="N68" s="9"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
@@ -12814,19 +12815,19 @@
     </row>
     <row r="69" spans="2:173" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
-      <c r="C69" s="64"/>
+      <c r="C69" s="75"/>
       <c r="D69" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="65"/>
       <c r="N69" s="23"/>
       <c r="O69" s="14"/>
       <c r="P69" s="14"/>
@@ -12989,7 +12990,7 @@
     </row>
     <row r="70" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B70" s="3"/>
-      <c r="C70" s="61"/>
+      <c r="C70" s="79"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -13162,7 +13163,7 @@
     </row>
     <row r="71" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B71" s="3"/>
-      <c r="C71" s="61"/>
+      <c r="C71" s="79"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -13335,7 +13336,7 @@
     </row>
     <row r="72" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B72" s="3"/>
-      <c r="C72" s="61"/>
+      <c r="C72" s="79"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -13508,7 +13509,7 @@
     </row>
     <row r="73" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B73" s="3"/>
-      <c r="C73" s="61"/>
+      <c r="C73" s="79"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -13681,7 +13682,7 @@
     </row>
     <row r="74" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B74" s="3"/>
-      <c r="C74" s="61"/>
+      <c r="C74" s="79"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -13854,7 +13855,7 @@
     </row>
     <row r="75" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B75" s="3"/>
-      <c r="C75" s="61"/>
+      <c r="C75" s="79"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -14027,7 +14028,7 @@
     </row>
     <row r="76" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B76" s="3"/>
-      <c r="C76" s="61"/>
+      <c r="C76" s="79"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -14200,7 +14201,7 @@
     </row>
     <row r="77" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B77" s="3"/>
-      <c r="C77" s="61"/>
+      <c r="C77" s="79"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -14373,7 +14374,7 @@
     </row>
     <row r="78" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B78" s="3"/>
-      <c r="C78" s="61"/>
+      <c r="C78" s="79"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -14546,7 +14547,7 @@
     </row>
     <row r="79" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B79" s="3"/>
-      <c r="C79" s="61"/>
+      <c r="C79" s="79"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -14719,7 +14720,7 @@
     </row>
     <row r="80" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B80" s="3"/>
-      <c r="C80" s="61"/>
+      <c r="C80" s="79"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -14892,7 +14893,7 @@
     </row>
     <row r="81" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B81" s="3"/>
-      <c r="C81" s="61"/>
+      <c r="C81" s="79"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -15065,6 +15066,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="EJ2:EQ2"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="ER2:EU2"/>
+    <mergeCell ref="EV2:FD2"/>
+    <mergeCell ref="FE2:FL2"/>
+    <mergeCell ref="FM2:FP2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="EA2:EI2"/>
+    <mergeCell ref="DF2:DN2"/>
+    <mergeCell ref="DO2:DV2"/>
+    <mergeCell ref="DW2:DZ2"/>
+    <mergeCell ref="CG2:CJ2"/>
+    <mergeCell ref="CK2:CS2"/>
+    <mergeCell ref="CT2:DA2"/>
+    <mergeCell ref="DB2:DE2"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="BY2:CF2"/>
+    <mergeCell ref="Z2:AH2"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:BC2"/>
+    <mergeCell ref="BD2:BK2"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="BL2:BO2"/>
     <mergeCell ref="C14:C15"/>
@@ -15081,56 +15132,6 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="BY2:CF2"/>
-    <mergeCell ref="Z2:AH2"/>
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:BC2"/>
-    <mergeCell ref="BD2:BK2"/>
-    <mergeCell ref="ER2:EU2"/>
-    <mergeCell ref="EV2:FD2"/>
-    <mergeCell ref="FE2:FL2"/>
-    <mergeCell ref="FM2:FP2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="EA2:EI2"/>
-    <mergeCell ref="DF2:DN2"/>
-    <mergeCell ref="DO2:DV2"/>
-    <mergeCell ref="DW2:DZ2"/>
-    <mergeCell ref="CG2:CJ2"/>
-    <mergeCell ref="CK2:CS2"/>
-    <mergeCell ref="CT2:DA2"/>
-    <mergeCell ref="DB2:DE2"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="EJ2:EQ2"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
   </mergeCells>
   <conditionalFormatting sqref="C4 C6 C8 C10 C12 C18 C20 C22 C24 C26 C28 C30 C32 C34 C36 C38 C40 C42 C44 C14 C16">
     <cfRule type="cellIs" dxfId="56" priority="94" operator="equal">

--- a/Doc/Analyse/Planif.xlsx
+++ b/Doc/Analyse/Planif.xlsx
@@ -644,6 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,7 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CL50" sqref="CL50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DF55" sqref="DF55:DG55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1556,236 +1556,236 @@
   <sheetData>
     <row r="1" spans="2:172" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:172" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="68" t="s">
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="68" t="s">
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="68" t="s">
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="68" t="s">
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="68" t="s">
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="68" t="s">
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="68" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="69"/>
-      <c r="BK2" s="69"/>
-      <c r="BL2" s="68" t="s">
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="68" t="s">
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="71"/>
+      <c r="BP2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="BQ2" s="69"/>
-      <c r="BR2" s="69"/>
-      <c r="BS2" s="69"/>
-      <c r="BT2" s="69"/>
-      <c r="BU2" s="69"/>
-      <c r="BV2" s="69"/>
-      <c r="BW2" s="69"/>
-      <c r="BX2" s="71"/>
-      <c r="BY2" s="68" t="s">
+      <c r="BQ2" s="70"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="BZ2" s="69"/>
-      <c r="CA2" s="69"/>
-      <c r="CB2" s="69"/>
-      <c r="CC2" s="69"/>
-      <c r="CD2" s="69"/>
-      <c r="CE2" s="69"/>
-      <c r="CF2" s="69"/>
-      <c r="CG2" s="68" t="s">
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="70"/>
+      <c r="CB2" s="70"/>
+      <c r="CC2" s="70"/>
+      <c r="CD2" s="70"/>
+      <c r="CE2" s="70"/>
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="CH2" s="69"/>
-      <c r="CI2" s="69"/>
-      <c r="CJ2" s="70"/>
-      <c r="CK2" s="68" t="s">
+      <c r="CH2" s="70"/>
+      <c r="CI2" s="70"/>
+      <c r="CJ2" s="71"/>
+      <c r="CK2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="CL2" s="69"/>
-      <c r="CM2" s="69"/>
-      <c r="CN2" s="69"/>
-      <c r="CO2" s="69"/>
-      <c r="CP2" s="69"/>
-      <c r="CQ2" s="69"/>
-      <c r="CR2" s="69"/>
-      <c r="CS2" s="71"/>
-      <c r="CT2" s="68" t="s">
+      <c r="CL2" s="70"/>
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="70"/>
+      <c r="CP2" s="70"/>
+      <c r="CQ2" s="70"/>
+      <c r="CR2" s="70"/>
+      <c r="CS2" s="72"/>
+      <c r="CT2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="CU2" s="69"/>
-      <c r="CV2" s="69"/>
-      <c r="CW2" s="69"/>
-      <c r="CX2" s="69"/>
-      <c r="CY2" s="69"/>
-      <c r="CZ2" s="69"/>
-      <c r="DA2" s="69"/>
-      <c r="DB2" s="68" t="s">
+      <c r="CU2" s="70"/>
+      <c r="CV2" s="70"/>
+      <c r="CW2" s="70"/>
+      <c r="CX2" s="70"/>
+      <c r="CY2" s="70"/>
+      <c r="CZ2" s="70"/>
+      <c r="DA2" s="70"/>
+      <c r="DB2" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="DC2" s="69"/>
-      <c r="DD2" s="69"/>
-      <c r="DE2" s="70"/>
-      <c r="DF2" s="68" t="s">
+      <c r="DC2" s="70"/>
+      <c r="DD2" s="70"/>
+      <c r="DE2" s="71"/>
+      <c r="DF2" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="DG2" s="69"/>
-      <c r="DH2" s="69"/>
-      <c r="DI2" s="69"/>
-      <c r="DJ2" s="69"/>
-      <c r="DK2" s="69"/>
-      <c r="DL2" s="69"/>
-      <c r="DM2" s="69"/>
-      <c r="DN2" s="71"/>
-      <c r="DO2" s="68" t="s">
+      <c r="DG2" s="70"/>
+      <c r="DH2" s="70"/>
+      <c r="DI2" s="70"/>
+      <c r="DJ2" s="70"/>
+      <c r="DK2" s="70"/>
+      <c r="DL2" s="70"/>
+      <c r="DM2" s="70"/>
+      <c r="DN2" s="72"/>
+      <c r="DO2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="DP2" s="69"/>
-      <c r="DQ2" s="69"/>
-      <c r="DR2" s="69"/>
-      <c r="DS2" s="69"/>
-      <c r="DT2" s="69"/>
-      <c r="DU2" s="69"/>
-      <c r="DV2" s="69"/>
-      <c r="DW2" s="68" t="s">
+      <c r="DP2" s="70"/>
+      <c r="DQ2" s="70"/>
+      <c r="DR2" s="70"/>
+      <c r="DS2" s="70"/>
+      <c r="DT2" s="70"/>
+      <c r="DU2" s="70"/>
+      <c r="DV2" s="70"/>
+      <c r="DW2" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="DX2" s="69"/>
-      <c r="DY2" s="69"/>
-      <c r="DZ2" s="70"/>
-      <c r="EA2" s="68" t="s">
+      <c r="DX2" s="70"/>
+      <c r="DY2" s="70"/>
+      <c r="DZ2" s="71"/>
+      <c r="EA2" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="EB2" s="69"/>
-      <c r="EC2" s="69"/>
-      <c r="ED2" s="69"/>
-      <c r="EE2" s="69"/>
-      <c r="EF2" s="69"/>
-      <c r="EG2" s="69"/>
-      <c r="EH2" s="69"/>
-      <c r="EI2" s="71"/>
-      <c r="EJ2" s="68" t="s">
+      <c r="EB2" s="70"/>
+      <c r="EC2" s="70"/>
+      <c r="ED2" s="70"/>
+      <c r="EE2" s="70"/>
+      <c r="EF2" s="70"/>
+      <c r="EG2" s="70"/>
+      <c r="EH2" s="70"/>
+      <c r="EI2" s="72"/>
+      <c r="EJ2" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="EK2" s="69"/>
-      <c r="EL2" s="69"/>
-      <c r="EM2" s="69"/>
-      <c r="EN2" s="69"/>
-      <c r="EO2" s="69"/>
-      <c r="EP2" s="69"/>
-      <c r="EQ2" s="69"/>
-      <c r="ER2" s="68" t="s">
+      <c r="EK2" s="70"/>
+      <c r="EL2" s="70"/>
+      <c r="EM2" s="70"/>
+      <c r="EN2" s="70"/>
+      <c r="EO2" s="70"/>
+      <c r="EP2" s="70"/>
+      <c r="EQ2" s="70"/>
+      <c r="ER2" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="ES2" s="69"/>
-      <c r="ET2" s="69"/>
-      <c r="EU2" s="70"/>
-      <c r="EV2" s="68" t="s">
+      <c r="ES2" s="70"/>
+      <c r="ET2" s="70"/>
+      <c r="EU2" s="71"/>
+      <c r="EV2" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="EW2" s="69"/>
-      <c r="EX2" s="69"/>
-      <c r="EY2" s="69"/>
-      <c r="EZ2" s="69"/>
-      <c r="FA2" s="69"/>
-      <c r="FB2" s="69"/>
-      <c r="FC2" s="69"/>
-      <c r="FD2" s="71"/>
-      <c r="FE2" s="68" t="s">
+      <c r="EW2" s="70"/>
+      <c r="EX2" s="70"/>
+      <c r="EY2" s="70"/>
+      <c r="EZ2" s="70"/>
+      <c r="FA2" s="70"/>
+      <c r="FB2" s="70"/>
+      <c r="FC2" s="70"/>
+      <c r="FD2" s="72"/>
+      <c r="FE2" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="FF2" s="69"/>
-      <c r="FG2" s="69"/>
-      <c r="FH2" s="69"/>
-      <c r="FI2" s="69"/>
-      <c r="FJ2" s="69"/>
-      <c r="FK2" s="69"/>
-      <c r="FL2" s="69"/>
-      <c r="FM2" s="68" t="s">
+      <c r="FF2" s="70"/>
+      <c r="FG2" s="70"/>
+      <c r="FH2" s="70"/>
+      <c r="FI2" s="70"/>
+      <c r="FJ2" s="70"/>
+      <c r="FK2" s="70"/>
+      <c r="FL2" s="70"/>
+      <c r="FM2" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="FN2" s="69"/>
-      <c r="FO2" s="69"/>
-      <c r="FP2" s="70"/>
+      <c r="FN2" s="70"/>
+      <c r="FO2" s="70"/>
+      <c r="FP2" s="71"/>
     </row>
     <row r="3" spans="2:172" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="73" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -2472,7 +2472,7 @@
     </row>
     <row r="5" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B5" s="15"/>
-      <c r="C5" s="73"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -2822,7 +2822,7 @@
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2993,7 +2993,7 @@
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -3166,7 +3166,7 @@
     </row>
     <row r="9" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="67"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -3505,7 +3505,7 @@
     </row>
     <row r="11" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
-      <c r="C11" s="67"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -3838,7 +3838,7 @@
     </row>
     <row r="13" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="67"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -4173,7 +4173,7 @@
     </row>
     <row r="15" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="C15" s="67"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
@@ -4346,7 +4346,7 @@
       <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -4522,7 +4522,7 @@
       <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -4857,7 +4857,7 @@
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="67"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
@@ -5025,7 +5025,7 @@
       <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -5186,7 +5186,7 @@
     </row>
     <row r="21" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="C21" s="67"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -5511,7 +5511,7 @@
     </row>
     <row r="23" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
-      <c r="C23" s="67"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
@@ -5672,7 +5672,7 @@
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -5830,7 +5830,7 @@
     </row>
     <row r="25" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
-      <c r="C25" s="67"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
@@ -5995,7 +5995,7 @@
       <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -6157,7 +6157,7 @@
     </row>
     <row r="27" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
-      <c r="C27" s="67"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
@@ -6322,7 +6322,7 @@
       <c r="B28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -6477,7 +6477,7 @@
     </row>
     <row r="29" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
-      <c r="C29" s="67"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
@@ -6643,7 +6643,7 @@
       <c r="B30" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="16" t="s">
@@ -6794,7 +6794,7 @@
     <row r="31" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="67"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
@@ -6947,7 +6947,7 @@
       <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="16" t="s">
@@ -7106,7 +7106,7 @@
     <row r="33" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="67"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="2" t="s">
         <v>5</v>
       </c>
@@ -7262,7 +7262,7 @@
       <c r="B34" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="16" t="s">
@@ -7417,7 +7417,7 @@
     <row r="35" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="67"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="2" t="s">
         <v>5</v>
       </c>
@@ -7572,7 +7572,7 @@
       <c r="B36" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="16" t="s">
@@ -7730,7 +7730,7 @@
     <row r="37" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A37" s="35"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="67"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="2" t="s">
         <v>5</v>
       </c>
@@ -7890,7 +7890,7 @@
       <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="16" t="s">
@@ -8051,7 +8051,7 @@
     </row>
     <row r="39" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
-      <c r="C39" s="67"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="2" t="s">
         <v>5</v>
       </c>
@@ -8211,7 +8211,7 @@
       <c r="B40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="16" t="s">
@@ -8374,7 +8374,7 @@
     </row>
     <row r="41" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
-      <c r="C41" s="67"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="2" t="s">
         <v>5</v>
       </c>
@@ -8542,7 +8542,7 @@
       <c r="B42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="16" t="s">
@@ -8701,7 +8701,7 @@
     </row>
     <row r="43" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
-      <c r="C43" s="67"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
@@ -8785,7 +8785,7 @@
       <c r="CD43" s="50"/>
       <c r="CE43" s="50"/>
       <c r="CF43" s="52"/>
-      <c r="CG43" s="80"/>
+      <c r="CG43" s="66"/>
       <c r="CH43" s="25"/>
       <c r="CI43" s="25"/>
       <c r="CJ43" s="37"/>
@@ -8862,7 +8862,7 @@
       <c r="B44" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="16" t="s">
@@ -9027,7 +9027,7 @@
     </row>
     <row r="45" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B45" s="34"/>
-      <c r="C45" s="67"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="2" t="s">
         <v>5</v>
       </c>
@@ -9197,7 +9197,7 @@
       <c r="B46" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="16" t="s">
@@ -9366,7 +9366,7 @@
     </row>
     <row r="47" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B47" s="34"/>
-      <c r="C47" s="67"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="2" t="s">
         <v>5</v>
       </c>
@@ -9536,7 +9536,7 @@
       <c r="B48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="16" t="s">
@@ -9699,7 +9699,7 @@
     </row>
     <row r="49" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B49" s="34"/>
-      <c r="C49" s="67"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="2" t="s">
         <v>5</v>
       </c>
@@ -9787,9 +9787,9 @@
       <c r="CH49" s="3"/>
       <c r="CI49" s="3"/>
       <c r="CJ49" s="35"/>
-      <c r="CK49" s="25"/>
-      <c r="CL49" s="25"/>
-      <c r="CM49" s="25"/>
+      <c r="CK49" s="50"/>
+      <c r="CL49" s="50"/>
+      <c r="CM49" s="50"/>
       <c r="CN49" s="25"/>
       <c r="CO49" s="3"/>
       <c r="CP49" s="3"/>
@@ -9869,7 +9869,7 @@
       <c r="B50" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="16" t="s">
@@ -10042,7 +10042,7 @@
     </row>
     <row r="51" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B51" s="59"/>
-      <c r="C51" s="67"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="2" t="s">
         <v>5</v>
       </c>
@@ -10212,7 +10212,7 @@
       <c r="B52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="16" t="s">
@@ -10376,7 +10376,7 @@
     </row>
     <row r="53" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
-      <c r="C53" s="67"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="2" t="s">
         <v>5</v>
       </c>
@@ -10546,7 +10546,7 @@
       <c r="B54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="16" t="s">
@@ -10592,7 +10592,7 @@
     </row>
     <row r="55" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
-      <c r="C55" s="67"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="2" t="s">
         <v>5</v>
       </c>
@@ -10619,6 +10619,8 @@
       <c r="CS55" s="18"/>
       <c r="DA55" s="18"/>
       <c r="DE55" s="35"/>
+      <c r="DF55" s="48"/>
+      <c r="DG55" s="48"/>
       <c r="DN55" s="18"/>
       <c r="DV55" s="18"/>
       <c r="DZ55" s="37"/>
@@ -10633,7 +10635,7 @@
       <c r="B56" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="16" t="s">
@@ -10797,7 +10799,7 @@
     </row>
     <row r="57" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
-      <c r="C57" s="67"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -10967,7 +10969,7 @@
       <c r="B58" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="16" t="s">
@@ -11133,7 +11135,7 @@
     </row>
     <row r="59" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
-      <c r="C59" s="67"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="1" t="s">
         <v>5</v>
       </c>
@@ -11310,7 +11312,7 @@
       <c r="B60" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="16" t="s">
@@ -11487,7 +11489,7 @@
     </row>
     <row r="61" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
-      <c r="C61" s="67"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="2" t="s">
         <v>5</v>
       </c>
@@ -11657,7 +11659,7 @@
       <c r="B62" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="66" t="s">
+      <c r="C62" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="16" t="s">
@@ -11819,7 +11821,7 @@
     </row>
     <row r="63" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
-      <c r="C63" s="67"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="2" t="s">
         <v>5</v>
       </c>
@@ -11990,7 +11992,7 @@
       <c r="B64" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="66" t="s">
+      <c r="C64" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="16" t="s">
@@ -12153,7 +12155,7 @@
     </row>
     <row r="65" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
-      <c r="C65" s="67"/>
+      <c r="C65" s="68"/>
       <c r="D65" s="2" t="s">
         <v>5</v>
       </c>
@@ -12320,7 +12322,7 @@
       <c r="B66" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="66" t="s">
+      <c r="C66" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="16" t="s">
@@ -12473,7 +12475,7 @@
     </row>
     <row r="67" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
-      <c r="C67" s="67"/>
+      <c r="C67" s="68"/>
       <c r="D67" s="2" t="s">
         <v>5</v>
       </c>
@@ -12644,7 +12646,7 @@
       <c r="B68" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="16" t="s">
@@ -12815,7 +12817,7 @@
     </row>
     <row r="69" spans="2:173" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
-      <c r="C69" s="75"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="7" t="s">
         <v>5</v>
       </c>
@@ -12990,7 +12992,7 @@
     </row>
     <row r="70" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B70" s="3"/>
-      <c r="C70" s="79"/>
+      <c r="C70" s="80"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -13163,7 +13165,7 @@
     </row>
     <row r="71" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B71" s="3"/>
-      <c r="C71" s="79"/>
+      <c r="C71" s="80"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -13336,7 +13338,7 @@
     </row>
     <row r="72" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B72" s="3"/>
-      <c r="C72" s="79"/>
+      <c r="C72" s="80"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -13509,7 +13511,7 @@
     </row>
     <row r="73" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B73" s="3"/>
-      <c r="C73" s="79"/>
+      <c r="C73" s="80"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -13682,7 +13684,7 @@
     </row>
     <row r="74" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B74" s="3"/>
-      <c r="C74" s="79"/>
+      <c r="C74" s="80"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -13855,7 +13857,7 @@
     </row>
     <row r="75" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B75" s="3"/>
-      <c r="C75" s="79"/>
+      <c r="C75" s="80"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -14028,7 +14030,7 @@
     </row>
     <row r="76" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B76" s="3"/>
-      <c r="C76" s="79"/>
+      <c r="C76" s="80"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -14201,7 +14203,7 @@
     </row>
     <row r="77" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B77" s="3"/>
-      <c r="C77" s="79"/>
+      <c r="C77" s="80"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -14374,7 +14376,7 @@
     </row>
     <row r="78" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B78" s="3"/>
-      <c r="C78" s="79"/>
+      <c r="C78" s="80"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -14547,7 +14549,7 @@
     </row>
     <row r="79" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B79" s="3"/>
-      <c r="C79" s="79"/>
+      <c r="C79" s="80"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -14720,7 +14722,7 @@
     </row>
     <row r="80" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B80" s="3"/>
-      <c r="C80" s="79"/>
+      <c r="C80" s="80"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -14893,7 +14895,7 @@
     </row>
     <row r="81" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B81" s="3"/>
-      <c r="C81" s="79"/>
+      <c r="C81" s="80"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>

--- a/Doc/Analyse/Planif.xlsx
+++ b/Doc/Analyse/Planif.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TPI_fictif\Doc\Analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TPI-TEST\Doc\Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -192,9 +192,6 @@
     <t>Mise en place de la saisie de consommation fonctionnelle</t>
   </si>
   <si>
-    <t>Possibilité de modifier/supprimer une consommation</t>
-  </si>
-  <si>
     <t>Rédaction du rapport</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>Rédaction finale du rapport</t>
+  </si>
+  <si>
+    <t>Possibilité de modifier une consommation</t>
   </si>
 </sst>
 </file>
@@ -645,10 +645,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -663,28 +669,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DF55" sqref="DF55:DG55"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1556,236 +1556,236 @@
   <sheetData>
     <row r="1" spans="2:172" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:172" x14ac:dyDescent="0.2">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="69" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="69" t="s">
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="69" t="s">
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="69" t="s">
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="69" t="s">
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="69" t="s">
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="69" t="s">
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="74"/>
+      <c r="BD2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="69" t="s">
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="71"/>
-      <c r="BP2" s="69" t="s">
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="73"/>
+      <c r="BP2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="BQ2" s="70"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="72"/>
-      <c r="BY2" s="69" t="s">
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="74"/>
+      <c r="BY2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="70"/>
-      <c r="CB2" s="70"/>
-      <c r="CC2" s="70"/>
-      <c r="CD2" s="70"/>
-      <c r="CE2" s="70"/>
-      <c r="CF2" s="70"/>
-      <c r="CG2" s="69" t="s">
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
+      <c r="CB2" s="72"/>
+      <c r="CC2" s="72"/>
+      <c r="CD2" s="72"/>
+      <c r="CE2" s="72"/>
+      <c r="CF2" s="72"/>
+      <c r="CG2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="CH2" s="70"/>
-      <c r="CI2" s="70"/>
-      <c r="CJ2" s="71"/>
-      <c r="CK2" s="69" t="s">
+      <c r="CH2" s="72"/>
+      <c r="CI2" s="72"/>
+      <c r="CJ2" s="73"/>
+      <c r="CK2" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="CL2" s="70"/>
-      <c r="CM2" s="70"/>
-      <c r="CN2" s="70"/>
-      <c r="CO2" s="70"/>
-      <c r="CP2" s="70"/>
-      <c r="CQ2" s="70"/>
-      <c r="CR2" s="70"/>
-      <c r="CS2" s="72"/>
-      <c r="CT2" s="69" t="s">
+      <c r="CL2" s="72"/>
+      <c r="CM2" s="72"/>
+      <c r="CN2" s="72"/>
+      <c r="CO2" s="72"/>
+      <c r="CP2" s="72"/>
+      <c r="CQ2" s="72"/>
+      <c r="CR2" s="72"/>
+      <c r="CS2" s="74"/>
+      <c r="CT2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="CU2" s="70"/>
-      <c r="CV2" s="70"/>
-      <c r="CW2" s="70"/>
-      <c r="CX2" s="70"/>
-      <c r="CY2" s="70"/>
-      <c r="CZ2" s="70"/>
-      <c r="DA2" s="70"/>
-      <c r="DB2" s="69" t="s">
+      <c r="CU2" s="72"/>
+      <c r="CV2" s="72"/>
+      <c r="CW2" s="72"/>
+      <c r="CX2" s="72"/>
+      <c r="CY2" s="72"/>
+      <c r="CZ2" s="72"/>
+      <c r="DA2" s="72"/>
+      <c r="DB2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="DC2" s="70"/>
-      <c r="DD2" s="70"/>
-      <c r="DE2" s="71"/>
-      <c r="DF2" s="69" t="s">
+      <c r="DC2" s="72"/>
+      <c r="DD2" s="72"/>
+      <c r="DE2" s="73"/>
+      <c r="DF2" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="DG2" s="70"/>
-      <c r="DH2" s="70"/>
-      <c r="DI2" s="70"/>
-      <c r="DJ2" s="70"/>
-      <c r="DK2" s="70"/>
-      <c r="DL2" s="70"/>
-      <c r="DM2" s="70"/>
-      <c r="DN2" s="72"/>
-      <c r="DO2" s="69" t="s">
+      <c r="DG2" s="72"/>
+      <c r="DH2" s="72"/>
+      <c r="DI2" s="72"/>
+      <c r="DJ2" s="72"/>
+      <c r="DK2" s="72"/>
+      <c r="DL2" s="72"/>
+      <c r="DM2" s="72"/>
+      <c r="DN2" s="74"/>
+      <c r="DO2" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="DP2" s="70"/>
-      <c r="DQ2" s="70"/>
-      <c r="DR2" s="70"/>
-      <c r="DS2" s="70"/>
-      <c r="DT2" s="70"/>
-      <c r="DU2" s="70"/>
-      <c r="DV2" s="70"/>
-      <c r="DW2" s="69" t="s">
+      <c r="DP2" s="72"/>
+      <c r="DQ2" s="72"/>
+      <c r="DR2" s="72"/>
+      <c r="DS2" s="72"/>
+      <c r="DT2" s="72"/>
+      <c r="DU2" s="72"/>
+      <c r="DV2" s="72"/>
+      <c r="DW2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="DX2" s="70"/>
-      <c r="DY2" s="70"/>
-      <c r="DZ2" s="71"/>
-      <c r="EA2" s="69" t="s">
+      <c r="DX2" s="72"/>
+      <c r="DY2" s="72"/>
+      <c r="DZ2" s="73"/>
+      <c r="EA2" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="EB2" s="70"/>
-      <c r="EC2" s="70"/>
-      <c r="ED2" s="70"/>
-      <c r="EE2" s="70"/>
-      <c r="EF2" s="70"/>
-      <c r="EG2" s="70"/>
-      <c r="EH2" s="70"/>
-      <c r="EI2" s="72"/>
-      <c r="EJ2" s="69" t="s">
+      <c r="EB2" s="72"/>
+      <c r="EC2" s="72"/>
+      <c r="ED2" s="72"/>
+      <c r="EE2" s="72"/>
+      <c r="EF2" s="72"/>
+      <c r="EG2" s="72"/>
+      <c r="EH2" s="72"/>
+      <c r="EI2" s="74"/>
+      <c r="EJ2" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="EK2" s="70"/>
-      <c r="EL2" s="70"/>
-      <c r="EM2" s="70"/>
-      <c r="EN2" s="70"/>
-      <c r="EO2" s="70"/>
-      <c r="EP2" s="70"/>
-      <c r="EQ2" s="70"/>
-      <c r="ER2" s="69" t="s">
+      <c r="EK2" s="72"/>
+      <c r="EL2" s="72"/>
+      <c r="EM2" s="72"/>
+      <c r="EN2" s="72"/>
+      <c r="EO2" s="72"/>
+      <c r="EP2" s="72"/>
+      <c r="EQ2" s="72"/>
+      <c r="ER2" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="ES2" s="70"/>
-      <c r="ET2" s="70"/>
-      <c r="EU2" s="71"/>
-      <c r="EV2" s="69" t="s">
+      <c r="ES2" s="72"/>
+      <c r="ET2" s="72"/>
+      <c r="EU2" s="73"/>
+      <c r="EV2" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="EW2" s="70"/>
-      <c r="EX2" s="70"/>
-      <c r="EY2" s="70"/>
-      <c r="EZ2" s="70"/>
-      <c r="FA2" s="70"/>
-      <c r="FB2" s="70"/>
-      <c r="FC2" s="70"/>
-      <c r="FD2" s="72"/>
-      <c r="FE2" s="69" t="s">
+      <c r="EW2" s="72"/>
+      <c r="EX2" s="72"/>
+      <c r="EY2" s="72"/>
+      <c r="EZ2" s="72"/>
+      <c r="FA2" s="72"/>
+      <c r="FB2" s="72"/>
+      <c r="FC2" s="72"/>
+      <c r="FD2" s="74"/>
+      <c r="FE2" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="FF2" s="70"/>
-      <c r="FG2" s="70"/>
-      <c r="FH2" s="70"/>
-      <c r="FI2" s="70"/>
-      <c r="FJ2" s="70"/>
-      <c r="FK2" s="70"/>
-      <c r="FL2" s="70"/>
-      <c r="FM2" s="69" t="s">
+      <c r="FF2" s="72"/>
+      <c r="FG2" s="72"/>
+      <c r="FH2" s="72"/>
+      <c r="FI2" s="72"/>
+      <c r="FJ2" s="72"/>
+      <c r="FK2" s="72"/>
+      <c r="FL2" s="72"/>
+      <c r="FM2" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="FN2" s="70"/>
-      <c r="FO2" s="70"/>
-      <c r="FP2" s="71"/>
+      <c r="FN2" s="72"/>
+      <c r="FO2" s="72"/>
+      <c r="FP2" s="73"/>
     </row>
     <row r="3" spans="2:172" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="79" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -2472,7 +2472,7 @@
     </row>
     <row r="5" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B5" s="15"/>
-      <c r="C5" s="74"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="68" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -2822,7 +2822,7 @@
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2993,7 +2993,7 @@
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="68" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -3166,7 +3166,7 @@
     </row>
     <row r="9" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="68"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="68" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -3505,7 +3505,7 @@
     </row>
     <row r="11" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
-      <c r="C11" s="68"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="68" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -3838,7 +3838,7 @@
     </row>
     <row r="13" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="68"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -4173,7 +4173,7 @@
     </row>
     <row r="15" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="C15" s="68"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
@@ -4346,7 +4346,7 @@
       <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -4522,7 +4522,7 @@
       <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -4857,7 +4857,7 @@
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="68"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
@@ -5023,9 +5023,9 @@
     </row>
     <row r="20" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -5186,7 +5186,7 @@
     </row>
     <row r="21" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="C21" s="68"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -5511,7 +5511,7 @@
     </row>
     <row r="23" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
-      <c r="C23" s="68"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
@@ -5670,9 +5670,9 @@
     </row>
     <row r="24" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -5830,7 +5830,7 @@
     </row>
     <row r="25" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
-      <c r="C25" s="68"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
@@ -5993,9 +5993,9 @@
     </row>
     <row r="26" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -6157,7 +6157,7 @@
     </row>
     <row r="27" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
-      <c r="C27" s="68"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
@@ -6320,9 +6320,9 @@
     </row>
     <row r="28" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -6477,7 +6477,7 @@
     </row>
     <row r="29" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
-      <c r="C29" s="68"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
@@ -6641,9 +6641,9 @@
     <row r="30" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="16" t="s">
@@ -6794,7 +6794,7 @@
     <row r="31" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="68"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
@@ -6947,7 +6947,7 @@
       <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="16" t="s">
@@ -7106,7 +7106,7 @@
     <row r="33" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="68"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="2" t="s">
         <v>5</v>
       </c>
@@ -7260,9 +7260,9 @@
     <row r="34" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="16" t="s">
@@ -7417,7 +7417,7 @@
     <row r="35" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="68"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="2" t="s">
         <v>5</v>
       </c>
@@ -7572,7 +7572,7 @@
       <c r="B36" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="16" t="s">
@@ -7730,7 +7730,7 @@
     <row r="37" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A37" s="35"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="68"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="2" t="s">
         <v>5</v>
       </c>
@@ -7890,7 +7890,7 @@
       <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="16" t="s">
@@ -8051,7 +8051,7 @@
     </row>
     <row r="39" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
-      <c r="C39" s="68"/>
+      <c r="C39" s="69"/>
       <c r="D39" s="2" t="s">
         <v>5</v>
       </c>
@@ -8209,9 +8209,9 @@
     </row>
     <row r="40" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="16" t="s">
@@ -8374,7 +8374,7 @@
     </row>
     <row r="41" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
-      <c r="C41" s="68"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="2" t="s">
         <v>5</v>
       </c>
@@ -8540,9 +8540,9 @@
     </row>
     <row r="42" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="16" t="s">
@@ -8701,7 +8701,7 @@
     </row>
     <row r="43" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
-      <c r="C43" s="68"/>
+      <c r="C43" s="69"/>
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
@@ -8860,9 +8860,9 @@
     </row>
     <row r="44" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B44" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="16" t="s">
@@ -9027,7 +9027,7 @@
     </row>
     <row r="45" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B45" s="34"/>
-      <c r="C45" s="68"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="2" t="s">
         <v>5</v>
       </c>
@@ -9195,9 +9195,9 @@
     </row>
     <row r="46" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B46" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="16" t="s">
@@ -9366,7 +9366,7 @@
     </row>
     <row r="47" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B47" s="34"/>
-      <c r="C47" s="68"/>
+      <c r="C47" s="69"/>
       <c r="D47" s="2" t="s">
         <v>5</v>
       </c>
@@ -9534,9 +9534,9 @@
     </row>
     <row r="48" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="16" t="s">
@@ -9699,7 +9699,7 @@
     </row>
     <row r="49" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B49" s="34"/>
-      <c r="C49" s="68"/>
+      <c r="C49" s="69"/>
       <c r="D49" s="2" t="s">
         <v>5</v>
       </c>
@@ -9867,9 +9867,9 @@
     </row>
     <row r="50" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B50" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="16" t="s">
@@ -10042,7 +10042,7 @@
     </row>
     <row r="51" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B51" s="59"/>
-      <c r="C51" s="68"/>
+      <c r="C51" s="69"/>
       <c r="D51" s="2" t="s">
         <v>5</v>
       </c>
@@ -10210,9 +10210,9 @@
     </row>
     <row r="52" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="16" t="s">
@@ -10376,7 +10376,7 @@
     </row>
     <row r="53" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
-      <c r="C53" s="68"/>
+      <c r="C53" s="69"/>
       <c r="D53" s="2" t="s">
         <v>5</v>
       </c>
@@ -10544,9 +10544,9 @@
     </row>
     <row r="54" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="16" t="s">
@@ -10592,7 +10592,7 @@
     </row>
     <row r="55" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
-      <c r="C55" s="68"/>
+      <c r="C55" s="69"/>
       <c r="D55" s="2" t="s">
         <v>5</v>
       </c>
@@ -10633,9 +10633,9 @@
     </row>
     <row r="56" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B56" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="16" t="s">
@@ -10799,7 +10799,7 @@
     </row>
     <row r="57" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
-      <c r="C57" s="68"/>
+      <c r="C57" s="69"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -10967,9 +10967,9 @@
     </row>
     <row r="58" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B58" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="16" t="s">
@@ -11135,7 +11135,7 @@
     </row>
     <row r="59" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
-      <c r="C59" s="68"/>
+      <c r="C59" s="69"/>
       <c r="D59" s="1" t="s">
         <v>5</v>
       </c>
@@ -11310,9 +11310,9 @@
     </row>
     <row r="60" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B60" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="16" t="s">
@@ -11489,7 +11489,7 @@
     </row>
     <row r="61" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
-      <c r="C61" s="68"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="2" t="s">
         <v>5</v>
       </c>
@@ -11657,9 +11657,9 @@
     </row>
     <row r="62" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B62" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="16" t="s">
@@ -11821,7 +11821,7 @@
     </row>
     <row r="63" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
-      <c r="C63" s="68"/>
+      <c r="C63" s="69"/>
       <c r="D63" s="2" t="s">
         <v>5</v>
       </c>
@@ -11990,9 +11990,9 @@
     </row>
     <row r="64" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B64" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="16" t="s">
@@ -12155,7 +12155,7 @@
     </row>
     <row r="65" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
-      <c r="C65" s="68"/>
+      <c r="C65" s="69"/>
       <c r="D65" s="2" t="s">
         <v>5</v>
       </c>
@@ -12320,9 +12320,9 @@
     </row>
     <row r="66" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B66" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="16" t="s">
@@ -12475,7 +12475,7 @@
     </row>
     <row r="67" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
-      <c r="C67" s="68"/>
+      <c r="C67" s="69"/>
       <c r="D67" s="2" t="s">
         <v>5</v>
       </c>
@@ -12644,9 +12644,9 @@
     </row>
     <row r="68" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B68" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="16" t="s">
@@ -12817,7 +12817,7 @@
     </row>
     <row r="69" spans="2:173" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
-      <c r="C69" s="76"/>
+      <c r="C69" s="70"/>
       <c r="D69" s="7" t="s">
         <v>5</v>
       </c>
@@ -12992,7 +12992,7 @@
     </row>
     <row r="70" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B70" s="3"/>
-      <c r="C70" s="80"/>
+      <c r="C70" s="67"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -13165,7 +13165,7 @@
     </row>
     <row r="71" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B71" s="3"/>
-      <c r="C71" s="80"/>
+      <c r="C71" s="67"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -13338,7 +13338,7 @@
     </row>
     <row r="72" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B72" s="3"/>
-      <c r="C72" s="80"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -13511,7 +13511,7 @@
     </row>
     <row r="73" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B73" s="3"/>
-      <c r="C73" s="80"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -13684,7 +13684,7 @@
     </row>
     <row r="74" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B74" s="3"/>
-      <c r="C74" s="80"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -13857,7 +13857,7 @@
     </row>
     <row r="75" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B75" s="3"/>
-      <c r="C75" s="80"/>
+      <c r="C75" s="67"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -14030,7 +14030,7 @@
     </row>
     <row r="76" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B76" s="3"/>
-      <c r="C76" s="80"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -14203,7 +14203,7 @@
     </row>
     <row r="77" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B77" s="3"/>
-      <c r="C77" s="80"/>
+      <c r="C77" s="67"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -14376,7 +14376,7 @@
     </row>
     <row r="78" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B78" s="3"/>
-      <c r="C78" s="80"/>
+      <c r="C78" s="67"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -14549,7 +14549,7 @@
     </row>
     <row r="79" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B79" s="3"/>
-      <c r="C79" s="80"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -14722,7 +14722,7 @@
     </row>
     <row r="80" spans="2:173" x14ac:dyDescent="0.2">
       <c r="B80" s="3"/>
-      <c r="C80" s="80"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -14895,7 +14895,7 @@
     </row>
     <row r="81" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B81" s="3"/>
-      <c r="C81" s="80"/>
+      <c r="C81" s="67"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -15068,19 +15068,43 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="N2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="BY2:CF2"/>
+    <mergeCell ref="Z2:AH2"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:BC2"/>
+    <mergeCell ref="BD2:BK2"/>
+    <mergeCell ref="ER2:EU2"/>
+    <mergeCell ref="EV2:FD2"/>
+    <mergeCell ref="FE2:FL2"/>
+    <mergeCell ref="FM2:FP2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="EA2:EI2"/>
+    <mergeCell ref="DF2:DN2"/>
+    <mergeCell ref="DO2:DV2"/>
+    <mergeCell ref="DW2:DZ2"/>
+    <mergeCell ref="CG2:CJ2"/>
+    <mergeCell ref="CK2:CS2"/>
+    <mergeCell ref="CT2:DA2"/>
+    <mergeCell ref="DB2:DE2"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C52:C53"/>
@@ -15097,43 +15121,19 @@
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="ER2:EU2"/>
-    <mergeCell ref="EV2:FD2"/>
-    <mergeCell ref="FE2:FL2"/>
-    <mergeCell ref="FM2:FP2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="EA2:EI2"/>
-    <mergeCell ref="DF2:DN2"/>
-    <mergeCell ref="DO2:DV2"/>
-    <mergeCell ref="DW2:DZ2"/>
-    <mergeCell ref="CG2:CJ2"/>
-    <mergeCell ref="CK2:CS2"/>
-    <mergeCell ref="CT2:DA2"/>
-    <mergeCell ref="DB2:DE2"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="BY2:CF2"/>
-    <mergeCell ref="Z2:AH2"/>
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:BC2"/>
-    <mergeCell ref="BD2:BK2"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="N2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
   </mergeCells>
   <conditionalFormatting sqref="C4 C6 C8 C10 C12 C18 C20 C22 C24 C26 C28 C30 C32 C34 C36 C38 C40 C42 C44 C14 C16">
     <cfRule type="cellIs" dxfId="56" priority="94" operator="equal">
